--- a/simulation_data/two_step_algorithm/2s_error_level_3_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_3_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.37033440360196</v>
+        <v>93.08525085689266</v>
       </c>
       <c r="D2" t="n">
-        <v>3.576323927532216</v>
+        <v>3.340025202903418</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.44812516624975</v>
+        <v>92.3576771621281</v>
       </c>
       <c r="D3" t="n">
-        <v>3.522695942055984</v>
+        <v>3.451818702673415</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.31541252757987</v>
+        <v>90.90907685791608</v>
       </c>
       <c r="D4" t="n">
-        <v>3.719546695727069</v>
+        <v>3.381960554259682</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.96577761785947</v>
+        <v>90.41128800391702</v>
       </c>
       <c r="D5" t="n">
-        <v>3.244713321159042</v>
+        <v>3.533313232557209</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.21710026555793</v>
+        <v>89.63626757684955</v>
       </c>
       <c r="D6" t="n">
-        <v>3.809984698042325</v>
+        <v>3.002486689832183</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.40197242924019</v>
+        <v>87.78315601719862</v>
       </c>
       <c r="D7" t="n">
-        <v>3.24622393441319</v>
+        <v>3.514833182698883</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.26336379556027</v>
+        <v>86.43587075500982</v>
       </c>
       <c r="D8" t="n">
-        <v>3.858848879435855</v>
+        <v>3.785458103510885</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.3140914997898</v>
+        <v>86.09784546303395</v>
       </c>
       <c r="D9" t="n">
-        <v>3.639386270430117</v>
+        <v>3.744484849148312</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.96890553627686</v>
+        <v>84.45593700091223</v>
       </c>
       <c r="D10" t="n">
-        <v>3.977886775610001</v>
+        <v>3.245081520225416</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.65311112258021</v>
+        <v>84.43554547909227</v>
       </c>
       <c r="D11" t="n">
-        <v>3.810536181605207</v>
+        <v>3.56855810262849</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.16743689537496</v>
+        <v>82.64598954897778</v>
       </c>
       <c r="D12" t="n">
-        <v>3.598035471380924</v>
+        <v>3.3759433328441</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.78012041758328</v>
+        <v>81.23959148317374</v>
       </c>
       <c r="D13" t="n">
-        <v>3.572346539467819</v>
+        <v>3.355940136646635</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.43048369021444</v>
+        <v>80.27991663155781</v>
       </c>
       <c r="D14" t="n">
-        <v>3.574171052903318</v>
+        <v>3.820697615290787</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.10652966350646</v>
+        <v>79.1668242583618</v>
       </c>
       <c r="D15" t="n">
-        <v>3.91815878031903</v>
+        <v>3.519289531692098</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.87003759730915</v>
+        <v>78.85309718279926</v>
       </c>
       <c r="D16" t="n">
-        <v>3.642833516167082</v>
+        <v>3.541884336850941</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.02367900397991</v>
+        <v>76.9582491014134</v>
       </c>
       <c r="D17" t="n">
-        <v>3.992239030748477</v>
+        <v>3.361823516231003</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.74569096503848</v>
+        <v>76.47055404943202</v>
       </c>
       <c r="D18" t="n">
-        <v>3.537957688716098</v>
+        <v>3.188437266524105</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.77582686626673</v>
+        <v>74.80398841957391</v>
       </c>
       <c r="D19" t="n">
-        <v>3.846009432207273</v>
+        <v>3.061213693802444</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.22023931937312</v>
+        <v>73.48113532422936</v>
       </c>
       <c r="D20" t="n">
-        <v>3.713517731270183</v>
+        <v>3.538654709020015</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.63788365963146</v>
+        <v>73.04034226304168</v>
       </c>
       <c r="D21" t="n">
-        <v>3.74741292071297</v>
+        <v>3.411995708503413</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.47665910924054</v>
+        <v>71.8700009686398</v>
       </c>
       <c r="D22" t="n">
-        <v>3.633138720895101</v>
+        <v>3.117111316741098</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.49273586722646</v>
+        <v>70.35309042557451</v>
       </c>
       <c r="D23" t="n">
-        <v>3.969868907946156</v>
+        <v>3.2388358040575</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.83134627144194</v>
+        <v>69.56515994100154</v>
       </c>
       <c r="D24" t="n">
-        <v>3.624811501835186</v>
+        <v>3.684319353505785</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.18122398249264</v>
+        <v>68.27150544267944</v>
       </c>
       <c r="D25" t="n">
-        <v>3.551404989678215</v>
+        <v>3.858012522729243</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.57757410531323</v>
+        <v>67.32731447544909</v>
       </c>
       <c r="D26" t="n">
-        <v>3.374232382891525</v>
+        <v>3.28699479306434</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.05205238969167</v>
+        <v>66.95538136022327</v>
       </c>
       <c r="D27" t="n">
-        <v>3.47686865659694</v>
+        <v>3.538905068816812</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.09232799833808</v>
+        <v>64.96223597058554</v>
       </c>
       <c r="D28" t="n">
-        <v>4.174173702282576</v>
+        <v>3.404074141486096</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.41344997697043</v>
+        <v>64.62022831362006</v>
       </c>
       <c r="D29" t="n">
-        <v>3.59617421795036</v>
+        <v>3.099752388983883</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.20200168686998</v>
+        <v>62.81155648678357</v>
       </c>
       <c r="D30" t="n">
-        <v>3.171248626873564</v>
+        <v>3.189418293144997</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.97050604732238</v>
+        <v>62.35485312332701</v>
       </c>
       <c r="D31" t="n">
-        <v>3.502984036522583</v>
+        <v>3.555946763266399</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.34445583877602</v>
+        <v>60.68439664834026</v>
       </c>
       <c r="D32" t="n">
-        <v>3.527273115120162</v>
+        <v>3.537579618187074</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.62248982119316</v>
+        <v>60.09264306786067</v>
       </c>
       <c r="D33" t="n">
-        <v>3.745444590611434</v>
+        <v>3.00248705020238</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.44038150961207</v>
+        <v>59.08112628801578</v>
       </c>
       <c r="D34" t="n">
-        <v>3.778481831308142</v>
+        <v>3.224809466223826</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.99538481483888</v>
+        <v>58.03038295542444</v>
       </c>
       <c r="D35" t="n">
-        <v>3.596753930857977</v>
+        <v>3.35991100544</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.38490579950466</v>
+        <v>56.66100631129626</v>
       </c>
       <c r="D36" t="n">
-        <v>3.014463227627505</v>
+        <v>3.200786065858762</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.31504125817241</v>
+        <v>55.08612774915781</v>
       </c>
       <c r="D37" t="n">
-        <v>3.58887471280647</v>
+        <v>3.864559603405181</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.7408965152768</v>
+        <v>55.12885612099947</v>
       </c>
       <c r="D38" t="n">
-        <v>3.217239997311318</v>
+        <v>3.5435242564591</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.82859269050937</v>
+        <v>53.55532431871269</v>
       </c>
       <c r="D39" t="n">
-        <v>3.374007438030202</v>
+        <v>3.491308985054963</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.30593092782595</v>
+        <v>52.63160169030236</v>
       </c>
       <c r="D40" t="n">
-        <v>3.509885345073152</v>
+        <v>3.332896087190854</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.31089424377611</v>
+        <v>51.67126070122762</v>
       </c>
       <c r="D41" t="n">
-        <v>3.183991930083622</v>
+        <v>3.626516541013862</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.79966737642144</v>
+        <v>50.47293724188053</v>
       </c>
       <c r="D42" t="n">
-        <v>3.838433122759075</v>
+        <v>3.193915121042503</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.47849281673663</v>
+        <v>49.180004078879</v>
       </c>
       <c r="D43" t="n">
-        <v>3.628489714723517</v>
+        <v>3.709668179669521</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.1564741693027</v>
+        <v>48.33709766796889</v>
       </c>
       <c r="D44" t="n">
-        <v>3.725223621369159</v>
+        <v>3.082990423379258</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.45793635925964</v>
+        <v>47.87772930822786</v>
       </c>
       <c r="D45" t="n">
-        <v>3.59482882674071</v>
+        <v>3.477715566663855</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.80361223432478</v>
+        <v>46.46924732057533</v>
       </c>
       <c r="D46" t="n">
-        <v>3.697666343278482</v>
+        <v>3.676120174476287</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.74310850582768</v>
+        <v>45.11248290772009</v>
       </c>
       <c r="D47" t="n">
-        <v>3.541812441854176</v>
+        <v>3.140152646274625</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.01832209489739</v>
+        <v>44.29920651349439</v>
       </c>
       <c r="D48" t="n">
-        <v>3.553326036352475</v>
+        <v>2.893388239223315</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.51766178185126</v>
+        <v>43.47946579905998</v>
       </c>
       <c r="D49" t="n">
-        <v>3.594272225619273</v>
+        <v>3.466796913286347</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.28442807966008</v>
+        <v>42.71773514309867</v>
       </c>
       <c r="D50" t="n">
-        <v>3.436828052307958</v>
+        <v>3.000093029386563</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.1830498262844</v>
+        <v>41.26339332459339</v>
       </c>
       <c r="D51" t="n">
-        <v>3.630191122267649</v>
+        <v>3.197054937377071</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.97555004318134</v>
+        <v>40.09646411002281</v>
       </c>
       <c r="D52" t="n">
-        <v>3.228371172132542</v>
+        <v>3.575897040561186</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.61938761699823</v>
+        <v>39.58965852712807</v>
       </c>
       <c r="D53" t="n">
-        <v>3.197859940128714</v>
+        <v>3.373649166216213</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.27894872890687</v>
+        <v>38.01370425152991</v>
       </c>
       <c r="D54" t="n">
-        <v>3.237873131534766</v>
+        <v>3.10568121657017</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.32239659837623</v>
+        <v>37.04479604452311</v>
       </c>
       <c r="D55" t="n">
-        <v>3.425378846190572</v>
+        <v>3.371643245265228</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.55411707452451</v>
+        <v>36.78021582044585</v>
       </c>
       <c r="D56" t="n">
-        <v>3.146113138644151</v>
+        <v>3.477733557347377</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.42622068457635</v>
+        <v>35.20597358021548</v>
       </c>
       <c r="D57" t="n">
-        <v>3.598041133484691</v>
+        <v>3.777626069352011</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.28718966672741</v>
+        <v>34.22139371819945</v>
       </c>
       <c r="D58" t="n">
-        <v>3.572397410458529</v>
+        <v>3.365517005782209</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.54385148409842</v>
+        <v>33.04564408423347</v>
       </c>
       <c r="D59" t="n">
-        <v>3.440335934618206</v>
+        <v>3.79479976116775</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.53618972974716</v>
+        <v>31.70324809613125</v>
       </c>
       <c r="D60" t="n">
-        <v>3.254677817177758</v>
+        <v>3.546101093267394</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.95452652905028</v>
+        <v>31.40240981045283</v>
       </c>
       <c r="D61" t="n">
-        <v>3.264210452648757</v>
+        <v>3.310637683956264</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.01175657265548</v>
+        <v>30.77114128581101</v>
       </c>
       <c r="D62" t="n">
-        <v>3.412042348849456</v>
+        <v>3.276043388284985</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.4831302064798</v>
+        <v>29.38721481071717</v>
       </c>
       <c r="D63" t="n">
-        <v>3.395062638999311</v>
+        <v>3.412398536751197</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.45420114676084</v>
+        <v>28.08429376727095</v>
       </c>
       <c r="D64" t="n">
-        <v>3.653093714935008</v>
+        <v>3.427304242077403</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.63120493215206</v>
+        <v>27.21454226187705</v>
       </c>
       <c r="D65" t="n">
-        <v>3.06470574274506</v>
+        <v>3.596949922879289</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.81771937749925</v>
+        <v>25.17288390527184</v>
       </c>
       <c r="D66" t="n">
-        <v>3.518906676019277</v>
+        <v>3.421071109282853</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.68439064518763</v>
+        <v>25.41558998219526</v>
       </c>
       <c r="D67" t="n">
-        <v>3.7493282084517</v>
+        <v>3.16630930514187</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.96455735005957</v>
+        <v>23.87340354676771</v>
       </c>
       <c r="D68" t="n">
-        <v>3.271724625302545</v>
+        <v>3.572222106852895</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.00399551808396</v>
+        <v>22.80489212374941</v>
       </c>
       <c r="D69" t="n">
-        <v>3.726678374990358</v>
+        <v>3.7690890303009</v>
       </c>
     </row>
   </sheetData>
